--- a/Критерии.xlsx
+++ b/Критерии.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prep\Desktop\VendingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12954A-3180-4D9C-B18B-D76C61F45201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AB903-51D9-43B8-92F6-870A96069DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии оценки" sheetId="1" r:id="rId1"/>
@@ -1899,6 +1899,12 @@
     <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1915,12 +1921,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2153,8 +2153,8 @@
   </sheetPr>
   <dimension ref="A1:W865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2234,12 +2234,12 @@
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="29">
         <f>SUM(F7:F54)</f>
         <v>36.200000000000053</v>
@@ -2886,12 +2886,12 @@
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="29"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="60" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
-      <c r="B60" s="124"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="32" t="s">
         <v>78</v>
       </c>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="125"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="41" t="s">
         <v>99</v>
       </c>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
-      <c r="B80" s="32"/>
+      <c r="B80" s="76"/>
       <c r="C80" s="39" t="s">
         <v>102</v>
       </c>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="81" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
-      <c r="B81" s="32"/>
+      <c r="B81" s="76"/>
       <c r="C81" s="32" t="s">
         <v>103</v>
       </c>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="82" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
-      <c r="B82" s="32"/>
+      <c r="B82" s="76"/>
       <c r="C82" s="32" t="s">
         <v>105</v>
       </c>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="83" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
-      <c r="B83" s="32"/>
+      <c r="B83" s="76"/>
       <c r="C83" s="32" t="s">
         <v>106</v>
       </c>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="84" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="32"/>
+      <c r="B84" s="76"/>
       <c r="C84" s="32" t="s">
         <v>108</v>
       </c>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
-      <c r="B85" s="32"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="32" t="s">
         <v>110</v>
       </c>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="86" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
-      <c r="B86" s="32"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="32" t="s">
         <v>112</v>
       </c>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="87" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="32"/>
+      <c r="B87" s="76"/>
       <c r="C87" s="32" t="s">
         <v>114</v>
       </c>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="88" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
-      <c r="B88" s="32"/>
+      <c r="B88" s="76"/>
       <c r="C88" s="32" t="s">
         <v>115</v>
       </c>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
-      <c r="B89" s="32"/>
+      <c r="B89" s="76"/>
       <c r="C89" s="32" t="s">
         <v>117</v>
       </c>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="91" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="32"/>
+      <c r="B91" s="76"/>
       <c r="C91" s="32" t="s">
         <v>119</v>
       </c>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
-      <c r="B92" s="32"/>
+      <c r="B92" s="76"/>
       <c r="C92" s="32" t="s">
         <v>121</v>
       </c>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="32"/>
+      <c r="B93" s="76"/>
       <c r="C93" s="32" t="s">
         <v>122</v>
       </c>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="94" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="32"/>
+      <c r="B94" s="76"/>
       <c r="C94" s="32" t="s">
         <v>123</v>
       </c>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="95" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="32"/>
+      <c r="B95" s="76"/>
       <c r="C95" s="32" t="s">
         <v>124</v>
       </c>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
-      <c r="B96" s="32"/>
+      <c r="B96" s="76"/>
       <c r="C96" s="32" t="s">
         <v>125</v>
       </c>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="97" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
-      <c r="B97" s="32"/>
+      <c r="B97" s="76"/>
       <c r="C97" s="32" t="s">
         <v>126</v>
       </c>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
-      <c r="B98" s="97"/>
+      <c r="B98" s="118"/>
       <c r="C98" s="32" t="s">
         <v>127</v>
       </c>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="99" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
-      <c r="B99" s="32"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="32" t="s">
         <v>128</v>
       </c>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
-      <c r="B100" s="32"/>
+      <c r="B100" s="76"/>
       <c r="C100" s="32" t="s">
         <v>129</v>
       </c>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="101" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
-      <c r="B101" s="97"/>
+      <c r="B101" s="118"/>
       <c r="C101" s="32" t="s">
         <v>131</v>
       </c>
@@ -5022,12 +5022,12 @@
       <c r="A220" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B220" s="120" t="s">
+      <c r="B220" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="C220" s="121"/>
-      <c r="D220" s="121"/>
-      <c r="E220" s="121"/>
+      <c r="C220" s="123"/>
+      <c r="D220" s="123"/>
+      <c r="E220" s="123"/>
       <c r="F220" s="99">
         <f>SUM(F221:F230)</f>
         <v>7</v>
@@ -5199,12 +5199,12 @@
       <c r="A231" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B231" s="120" t="s">
+      <c r="B231" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="C231" s="121"/>
-      <c r="D231" s="121"/>
-      <c r="E231" s="121"/>
+      <c r="C231" s="123"/>
+      <c r="D231" s="123"/>
+      <c r="E231" s="123"/>
       <c r="F231" s="99">
         <f>SUM(F232:F267)</f>
         <v>18.299999999999997</v>
@@ -7503,10 +7503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
